--- a/data/trans_bre/P2A_lim_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.303692921854112</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.503115520487819</v>
+        <v>3.503115520487815</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9635749687961542</v>
@@ -649,7 +649,7 @@
         <v>-0.3314056080131906</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5600409851528833</v>
+        <v>0.5600409851528825</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06836007257544513</v>
+        <v>-0.07581302177660636</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.209736922691899</v>
+        <v>-1.307862416811529</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.00446690757282</v>
+        <v>-3.877613282145378</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.415362856228975</v>
+        <v>-1.539382525768844</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.05727325391019724</v>
+        <v>-0.11059519162154</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2246393124922546</v>
+        <v>-0.2589317866365978</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6926868433865465</v>
+        <v>-0.7190272154904022</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2941900246159331</v>
+        <v>-0.2372990076962296</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.278163227037861</v>
+        <v>4.189767356333283</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.711782345113511</v>
+        <v>4.3690214569361</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.028862786752136</v>
+        <v>1.132652597514609</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.024491064692858</v>
+        <v>9.610883279577694</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.653757646689589</v>
+        <v>3.483398458565886</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.761069583767685</v>
+        <v>1.406336705654498</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4649472976971431</v>
+        <v>0.5328084602265507</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.270055967403591</v>
+        <v>2.395245703495782</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.22094721722333</v>
+        <v>-2.199761647277361</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.882492673936513</v>
+        <v>-2.566869573934587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.415202051226175</v>
+        <v>-2.187886289275116</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.970129559055238</v>
+        <v>-8.781341896284159</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5204306506665198</v>
+        <v>-0.5164210947576423</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3866311718609912</v>
+        <v>-0.355598269838309</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4960354690118048</v>
+        <v>-0.4664638274789474</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6199853888578599</v>
+        <v>-0.6236777377855277</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.585544873617812</v>
+        <v>1.623430448534363</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.063715431317843</v>
+        <v>3.185274053312916</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.853510159132639</v>
+        <v>2.045530319565088</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2680749057274928</v>
+        <v>0.4589008846958704</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6501129389175294</v>
+        <v>0.6940340676717294</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6003423825912614</v>
+        <v>0.6757116318810088</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6845309023658086</v>
+        <v>0.8240180799143121</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.05895365953630687</v>
+        <v>0.06896315142660712</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.8913366238085113</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.899946833670136</v>
+        <v>2.899946833670138</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2198231861039295</v>
@@ -849,7 +849,7 @@
         <v>0.1960671686374507</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5025021663221011</v>
+        <v>0.5025021663221013</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.627628748400167</v>
+        <v>-1.681040172758293</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8456958186522496</v>
+        <v>-0.9301158561610696</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.572581751370686</v>
+        <v>-1.609330137294762</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1811173783738365</v>
+        <v>0.4309737254847013</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2557265908618676</v>
+        <v>-0.2626324880344331</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.09383943520696489</v>
+        <v>-0.1246295474494062</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2889966028178323</v>
+        <v>-0.2753348421028886</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.01417496065761077</v>
+        <v>0.03248888450150433</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.499870294046532</v>
+        <v>3.762101600694077</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.362927845559716</v>
+        <v>5.140327028785378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.104917289728844</v>
+        <v>3.255330909158288</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.55448560571601</v>
+        <v>5.723357921515037</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9400358970376466</v>
+        <v>1.049729129596588</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9200163536752614</v>
+        <v>0.8564290572199931</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8517764033874082</v>
+        <v>0.920796628526737</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.247591638804133</v>
+        <v>1.246004187548572</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-1.736331222389592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.557298343448874</v>
+        <v>-1.557298343448876</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5427337360236898</v>
@@ -949,7 +949,7 @@
         <v>-0.1760459782828415</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1104885297292667</v>
+        <v>-0.1104885297292669</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2064077636064947</v>
+        <v>0.1294460823419526</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.8804243217862239</v>
+        <v>-0.8330400498157537</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.161436162188283</v>
+        <v>-4.940369986286231</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.887012132293738</v>
+        <v>-5.204075673055249</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.006800735600269575</v>
+        <v>-0.0003888975773490366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07843311504521824</v>
+        <v>-0.08212106443781536</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.435234180287538</v>
+        <v>-0.4251824126093142</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2930571232130163</v>
+        <v>-0.3196776949632639</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.105786895269063</v>
+        <v>7.244895228390634</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.071374679541692</v>
+        <v>6.975438821063798</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.52351164484555</v>
+        <v>1.914643551323009</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.613331569111958</v>
+        <v>1.715483363026961</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.304829521629025</v>
+        <v>1.306130954226871</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9343887465044879</v>
+        <v>0.9312473802283981</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2076575053003632</v>
+        <v>0.2333618353021191</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1444174495111458</v>
+        <v>0.1457969300583061</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.258738263064118</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-5.177395962512684</v>
+        <v>-5.177395962512682</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1961518449091614</v>
@@ -1049,7 +1049,7 @@
         <v>0.3985643259860711</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.283406635198638</v>
+        <v>-0.2834066351986378</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.105567817206963</v>
+        <v>-6.724635903967958</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.636940288380656</v>
+        <v>-3.299287618713962</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3208240638413253</v>
+        <v>-0.7846273644651206</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.001944490094903</v>
+        <v>-9.034223863948498</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4746647553539963</v>
+        <v>-0.4650257015325259</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2312723063048035</v>
+        <v>-0.2216697996339643</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.02816616670242931</v>
+        <v>-0.06646696920106504</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4283004130659804</v>
+        <v>-0.4384798552389373</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.864071565520068</v>
+        <v>2.184433301778063</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.025122808365242</v>
+        <v>6.378870147308301</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.341104515156658</v>
+        <v>8.638649191196636</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.597258146346187</v>
+        <v>-1.605011643040876</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2032697727342332</v>
+        <v>0.220746785985912</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5436546534757706</v>
+        <v>0.565187147964009</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.168631635953393</v>
+        <v>0.9795180014785132</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.09326214084088419</v>
+        <v>-0.09903940880705268</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>0.2570383653473148</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.08446185940421609</v>
+        <v>0.08446185940421611</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.371440982953725</v>
+        <v>-5.585993336026904</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-7.507989321553439</v>
+        <v>-8.53838008458308</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.338340162827506</v>
+        <v>-2.255516363426623</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.45975887148534</v>
+        <v>-3.184087718078057</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3810843827076892</v>
+        <v>-0.400660701593298</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4054607093507622</v>
+        <v>-0.4472571986500349</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2075325581588806</v>
+        <v>-0.1901952958330226</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1314757164663877</v>
+        <v>-0.1694406097678535</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.868759224153766</v>
+        <v>3.797007486394456</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.834430402856218</v>
+        <v>3.919084960381029</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.155379887496709</v>
+        <v>7.274335261244878</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.490585363456585</v>
+        <v>5.382554297045562</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.418833960032915</v>
+        <v>0.4406327218500771</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3163473448727249</v>
+        <v>0.3116607190861705</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.017013618636257</v>
+        <v>1.0076095231588</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3949481530559018</v>
+        <v>0.3711322677966664</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>8.3934081155546</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.594511786631819</v>
+        <v>7.594511786631814</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1110182689866704</v>
@@ -1249,7 +1249,7 @@
         <v>0.9466701251678559</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2683322669789996</v>
+        <v>0.2683322669789994</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.313538869655839</v>
+        <v>-4.952806077746446</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.340876969486205</v>
+        <v>-5.169905771115283</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.035483856714686</v>
+        <v>3.373464979507587</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.099625010642619</v>
+        <v>2.077212741878665</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2718679015443717</v>
+        <v>-0.2651624542799162</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2195610066647602</v>
+        <v>-0.2131333796835626</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2482606507027698</v>
+        <v>0.2900755250391195</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.06085097782726307</v>
+        <v>0.06694023242457184</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.99797687447033</v>
+        <v>7.82420281112028</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.300896050941803</v>
+        <v>9.246301443236952</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.28065065089371</v>
+        <v>14.05746319770079</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.109166479842</v>
+        <v>12.88905491407982</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7081044973832969</v>
+        <v>0.6645699793057432</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6069946223562027</v>
+        <v>0.5907917208667489</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.076003188442379</v>
+        <v>2.346423066356611</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5235219171900165</v>
+        <v>0.5137880319891032</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>1.666701758529006</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9597266718890801</v>
+        <v>0.9597266718890829</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2072621595395545</v>
@@ -1349,7 +1349,7 @@
         <v>0.2365919974138433</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.0708789404583814</v>
+        <v>0.07087894045838161</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1759059023563641</v>
+        <v>0.227992101711534</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6461412537286856</v>
+        <v>0.505946950649955</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2025611585343983</v>
+        <v>0.3290916681941051</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.5666379490316752</v>
+        <v>-0.6043985277135339</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02377118636118043</v>
+        <v>0.02736787634645289</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06147719022858623</v>
+        <v>0.04883604993858055</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02602307355575393</v>
+        <v>0.04333241668246197</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.04071064359982048</v>
+        <v>-0.04101446023452783</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.864098767530309</v>
+        <v>2.706188937672979</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.730387987962729</v>
+        <v>3.572842821523676</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.000606439706746</v>
+        <v>3.053446168883296</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.549021134330061</v>
+        <v>2.398031805489045</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4779128464734936</v>
+        <v>0.4531655125948269</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4289791956112965</v>
+        <v>0.4135677299227074</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4617416966861266</v>
+        <v>0.4798544409870482</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2023793746596943</v>
+        <v>0.1891293843554564</v>
       </c>
     </row>
     <row r="28">
